--- a/biology/Zoologie/Epinephelus_fasciatus/Epinephelus_fasciatus.xlsx
+++ b/biology/Zoologie/Epinephelus_fasciatus/Epinephelus_fasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epinephelus fasciatus · Mérou oriflamme, Mérou badèche, Loche rouge
-Epinephelus fasciatus, communément nommé Mérou oriflamme,  Loche rouge[1] entre autres noms vernaculaires, est une espèce de poissons marins de la famille des Serranidae.
-Le Mérou oriflamme est présent dans les eaux tropicales de l'Indo-Pacifique, Mer Rouge incluse[2].
+Epinephelus fasciatus, communément nommé Mérou oriflamme,  Loche rouge entre autres noms vernaculaires, est une espèce de poissons marins de la famille des Serranidae.
+Le Mérou oriflamme est présent dans les eaux tropicales de l'Indo-Pacifique, Mer Rouge incluse.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson peut atteindre une taille de 40 cm de long mais la taille couramment observée est de 22 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson peut atteindre une taille de 40 cm de long mais la taille couramment observée est de 22 cm.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Synonymes taxonomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cerna alexandrina (Valenciennes, 1828)
